--- a/data/financial_statements/socf/VRTX.xlsx
+++ b/data/financial_statements/socf/VRTX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,144 +586,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>931000000</v>
+        <v>930500000</v>
       </c>
       <c r="C2">
-        <v>811000000</v>
+        <v>810500000</v>
       </c>
       <c r="D2">
-        <v>762000000</v>
+        <v>762100000</v>
       </c>
       <c r="E2">
-        <v>770000000</v>
+        <v>770100000</v>
       </c>
       <c r="F2">
-        <v>852000000</v>
+        <v>851900000</v>
       </c>
       <c r="G2">
         <v>67000000</v>
@@ -718,8 +829,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>36700000</v>
@@ -840,8 +951,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>-92500000</v>
@@ -962,8 +1073,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>-119500000</v>
@@ -1084,8 +1195,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>-26800000</v>
@@ -1206,8 +1317,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-69900000</v>
@@ -1328,8 +1439,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>433200000</v>
@@ -1450,8 +1561,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>-136200000</v>
@@ -1572,8 +1683,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>955500000</v>
@@ -1694,8 +1805,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-54200000</v>
@@ -1816,8 +1927,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-295900000</v>
@@ -1842,8 +1953,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-34100000</v>
@@ -1964,8 +2075,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-85000000</v>
@@ -2059,8 +2170,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-384200000</v>
@@ -2181,8 +2292,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-49500000</v>
@@ -2303,8 +2414,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>36600000</v>
@@ -2425,8 +2536,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-47300000</v>
@@ -2547,8 +2658,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-60200000</v>
@@ -2669,8 +2780,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>-38200000</v>
@@ -2791,8 +2902,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>472900000</v>
@@ -2913,8 +3024,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3035,8 +3146,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>472900000</v>
@@ -3157,8 +3268,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>135600000</v>
@@ -3279,8 +3390,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3401,23 +3512,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>-0.1192</v>
+        <v>-0.1245</v>
       </c>
       <c r="C26">
-        <v>-0.1155</v>
+        <v>-0.1205</v>
       </c>
       <c r="D26">
-        <v>-0.1095</v>
+        <v>-0.1151</v>
       </c>
       <c r="E26">
-        <v>-0.1172</v>
+        <v>-0.1225</v>
       </c>
       <c r="F26">
-        <v>-0.129</v>
+        <v>-0.1367</v>
       </c>
       <c r="G26">
         <v>-0.1174</v>
@@ -3523,8 +3634,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>80800000</v>
@@ -3645,8 +3756,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-34100000</v>
@@ -3767,8 +3878,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>36600000</v>
@@ -3889,8 +4000,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>36600000</v>
